--- a/Group_16_2.xlsx
+++ b/Group_16_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alec-\Documents\GitHub\Airline-Planning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4648AF7-FB35-4B12-BEB0-F41BC122E1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFEED38-24EB-40FD-947C-9F14088044C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25290" yWindow="2385" windowWidth="11895" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>Itin No.</t>
   </si>
@@ -64,42 +64,6 @@
     <t>NF1100</t>
   </si>
   <si>
-    <t>LFPG</t>
-  </si>
-  <si>
-    <t>NF1472</t>
-  </si>
-  <si>
-    <t>OMDB</t>
-  </si>
-  <si>
-    <t>NF1303</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>NF1133</t>
-  </si>
-  <si>
-    <t>FACT</t>
-  </si>
-  <si>
-    <t>NF1248</t>
-  </si>
-  <si>
-    <t>NF2200</t>
-  </si>
-  <si>
-    <t>NF1300</t>
-  </si>
-  <si>
-    <t>NF1475</t>
-  </si>
-  <si>
-    <t>NF1241</t>
-  </si>
-  <si>
     <t>Flight Number</t>
   </si>
   <si>
@@ -130,94 +94,13 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>AR1824</t>
-  </si>
-  <si>
     <t>BIKF</t>
   </si>
   <si>
-    <t>AR1803</t>
-  </si>
-  <si>
     <t>LEMD</t>
   </si>
   <si>
     <t>EIDW</t>
-  </si>
-  <si>
-    <t>AR1800</t>
-  </si>
-  <si>
-    <t>EDDB</t>
-  </si>
-  <si>
-    <t>AR1843</t>
-  </si>
-  <si>
-    <t>AR1854</t>
-  </si>
-  <si>
-    <t>AR1659</t>
-  </si>
-  <si>
-    <t>ESSA</t>
-  </si>
-  <si>
-    <t>AR1801</t>
-  </si>
-  <si>
-    <t>AR1823</t>
-  </si>
-  <si>
-    <t>RJAA</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>AR1842</t>
-  </si>
-  <si>
-    <t>AR1874</t>
-  </si>
-  <si>
-    <t>EFRO</t>
-  </si>
-  <si>
-    <t>AR1891</t>
-  </si>
-  <si>
-    <t>AR1596</t>
-  </si>
-  <si>
-    <t>AR1666</t>
-  </si>
-  <si>
-    <t>AR1591</t>
-  </si>
-  <si>
-    <t>AR1878</t>
-  </si>
-  <si>
-    <t>AR1531</t>
-  </si>
-  <si>
-    <t>LTFM</t>
-  </si>
-  <si>
-    <t>AR1700</t>
-  </si>
-  <si>
-    <t>EHEH</t>
-  </si>
-  <si>
-    <t>AR1725</t>
-  </si>
-  <si>
-    <t>AR1871</t>
-  </si>
-  <si>
-    <t>AR1890</t>
   </si>
   <si>
     <t>Type</t>
@@ -636,7 +519,7 @@
   <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,39 +533,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -697,7 +580,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>14047.5867036687</v>
       </c>
       <c r="G2" s="6">
         <v>14047.5867036687</v>
@@ -714,7 +597,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -729,7 +612,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
+        <v>14047.5867036687</v>
       </c>
       <c r="G3" s="6">
         <v>14047.5867036687</v>
@@ -746,13 +629,13 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5">
         <v>0.35416666666666669</v>
@@ -760,16 +643,28 @@
       <c r="E4" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
+      <c r="F4" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="G4" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10063.601083791789</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10161.627881564829</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -780,19 +675,31 @@
       <c r="E5" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
+      <c r="F5" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="G5" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10063.601083791789</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10161.627881564829</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <v>0.60416666666666663</v>
@@ -800,16 +707,28 @@
       <c r="E6" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
+      <c r="F6" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="G6" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10063.601083791789</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10161.627881564829</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -820,8 +739,20 @@
       <c r="E7" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
+      <c r="F7" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="G7" s="6">
+        <v>14047.5867036687</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10063.601083791789</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10161.627881564829</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1672,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1825,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1851,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1877,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1891,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
@@ -1903,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1914,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1929,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1958,13 +1889,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,21 +1944,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -2051,7 +1982,9 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2063,51 +1996,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.9166666666666665</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.03125</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.89236111111111116</v>
       </c>
       <c r="F2" s="6">
         <v>14349.04677402738</v>
@@ -2127,19 +2060,19 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.6006944444444444</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.89236111111111116</v>
       </c>
       <c r="F3" s="6">
         <v>10216.4906544801</v>
@@ -2158,580 +2091,166 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.6493055555555556</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="F4" s="6">
-        <v>13098.179948940249</v>
-      </c>
-      <c r="G4" s="6">
-        <v>14756.067032152159</v>
-      </c>
-      <c r="H4" s="6">
-        <v>10588.68124472927</v>
-      </c>
-      <c r="I4" s="6">
-        <v>10612.82206398645</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.4131944444444444</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.5173611111111112</v>
-      </c>
-      <c r="F5" s="6">
-        <v>14068.56706835674</v>
-      </c>
-      <c r="G5" s="6">
-        <v>16092.694908766911</v>
-      </c>
-      <c r="H5" s="6">
-        <v>11596.503074237609</v>
-      </c>
-      <c r="I5" s="6">
-        <v>11471.405653758289</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.5625</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.5798611111111112</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10216.4906544801</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10917.408806454279</v>
-      </c>
-      <c r="H6" s="6">
-        <v>7834.7118114659597</v>
-      </c>
-      <c r="I6" s="6">
-        <v>8207.7734637868907</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.5729166666666665</v>
-      </c>
-      <c r="F7" s="6">
-        <v>13098.179948940249</v>
-      </c>
-      <c r="G7" s="6">
-        <v>14756.067032152159</v>
-      </c>
-      <c r="H7" s="6">
-        <v>10588.68124472927</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10612.82206398645</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.4548611111111112</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.6006944444444444</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15101.97281401014</v>
-      </c>
-      <c r="G8" s="6">
-        <v>17535.971163445549</v>
-      </c>
-      <c r="H8" s="6">
-        <v>12707.57161381932</v>
-      </c>
-      <c r="I8" s="6">
-        <v>12408.17103308309</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.1354166666666667</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.3541666666666667</v>
-      </c>
-      <c r="F9" s="6">
-        <v>16520.301669296459</v>
-      </c>
-      <c r="G9" s="6">
-        <v>19546.578762743138</v>
-      </c>
-      <c r="H9" s="6">
-        <v>14290.393070901169</v>
-      </c>
-      <c r="I9" s="6">
-        <v>13727.8383653278</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.5625</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.7395833333333335</v>
-      </c>
-      <c r="F10" s="6">
-        <v>15756.057035602589</v>
-      </c>
-      <c r="G10" s="6">
-        <v>18459.13930942188</v>
-      </c>
-      <c r="H10" s="6">
-        <v>13429.53773782059</v>
-      </c>
-      <c r="I10" s="6">
-        <v>13012.0998002059</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.5868055555555556</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.6180555555555556</v>
-      </c>
-      <c r="F11" s="6">
-        <v>11225.286688680369</v>
-      </c>
-      <c r="G11" s="6">
-        <v>12235.857049246801</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8753.5759144288986</v>
-      </c>
-      <c r="I11" s="6">
-        <v>9021.9884493101999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.8506944444444444</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.9708333333333332</v>
-      </c>
-      <c r="F12" s="6">
-        <v>14491.894550428729</v>
-      </c>
-      <c r="G12" s="6">
-        <v>16681.568216745811</v>
-      </c>
-      <c r="H12" s="6">
-        <v>12047.11574401635</v>
-      </c>
-      <c r="I12" s="6">
-        <v>11852.471317343779</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.9375</v>
-      </c>
-      <c r="F13" s="6">
-        <v>15957.23803353039</v>
-      </c>
-      <c r="G13" s="6">
-        <v>18744.502889975629</v>
-      </c>
-      <c r="H13" s="6">
-        <v>13654.379765196751</v>
-      </c>
-      <c r="I13" s="6">
-        <v>13199.480769516869</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.6840277777777777</v>
-      </c>
-      <c r="F14" s="6">
-        <v>12577.89656198255</v>
-      </c>
-      <c r="G14" s="6">
-        <v>14047.5867036687</v>
-      </c>
-      <c r="H14" s="6">
-        <v>10063.601083791789</v>
-      </c>
-      <c r="I14" s="6">
-        <v>10161.627881564829</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.3402777777777777</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.5340277777777778</v>
-      </c>
-      <c r="F15" s="6">
-        <v>16074.47841011319</v>
-      </c>
-      <c r="G15" s="6">
-        <v>18911.100550591</v>
-      </c>
-      <c r="H15" s="6">
-        <v>13785.99851684263</v>
-      </c>
-      <c r="I15" s="6">
-        <v>13309.02281110185</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.2326388888888888</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.3576388888888888</v>
-      </c>
-      <c r="F16" s="6">
-        <v>14613.40422760044</v>
-      </c>
-      <c r="G16" s="6">
-        <v>16851.20883267514</v>
-      </c>
-      <c r="H16" s="6">
-        <v>12177.633525414931</v>
-      </c>
-      <c r="I16" s="6">
-        <v>11962.54595167391</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.9201388888888888</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.9375</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10216.4906544801</v>
-      </c>
-      <c r="G17" s="6">
-        <v>10917.408806454279</v>
-      </c>
-      <c r="H17" s="6">
-        <v>7834.7118114659597</v>
-      </c>
-      <c r="I17" s="6">
-        <v>8207.7734637868907</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1.2361111111111112</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.2881944444444444</v>
-      </c>
-      <c r="F18" s="6">
-        <v>12287.38623422546</v>
-      </c>
-      <c r="G18" s="6">
-        <v>13654.660194763481</v>
-      </c>
-      <c r="H18" s="6">
-        <v>9775.3314667208724</v>
-      </c>
-      <c r="I18" s="6">
-        <v>9912.6605522709942</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1.9166666666666665</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1.9756944444444444</v>
-      </c>
-      <c r="F19" s="6">
-        <v>12577.89656198255</v>
-      </c>
-      <c r="G19" s="6">
-        <v>14047.5867036687</v>
-      </c>
-      <c r="H19" s="6">
-        <v>10063.601083791789</v>
-      </c>
-      <c r="I19" s="6">
-        <v>10161.627881564829</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1.6736111111111112</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1.8618055555555557</v>
-      </c>
-      <c r="F20" s="6">
-        <v>15970.389006865729</v>
-      </c>
-      <c r="G20" s="6">
-        <v>18763.17942576174</v>
-      </c>
-      <c r="H20" s="6">
-        <v>13669.122062916969</v>
-      </c>
-      <c r="I20" s="6">
-        <v>13211.75567808798</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1.6631944444444444</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1.7881944444444444</v>
-      </c>
-      <c r="F21" s="6">
-        <v>14613.40422760044</v>
-      </c>
-      <c r="G21" s="6">
-        <v>16851.20883267514</v>
-      </c>
-      <c r="H21" s="6">
-        <v>12177.633525414931</v>
-      </c>
-      <c r="I21" s="6">
-        <v>11962.54595167391</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,7 +2264,9 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2757,34 +2278,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,11 +2318,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.8333333333333335</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.8923611111111112</v>
+      <c r="D2" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.89236111111111116</v>
       </c>
       <c r="F2" s="6">
         <v>12577.89656198255</v>
@@ -2829,11 +2350,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.8333333333333335</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.8923611111111112</v>
+      <c r="D3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.89236111111111116</v>
       </c>
       <c r="F3" s="6">
         <v>12577.89656198255</v>
@@ -2852,260 +2373,76 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.875</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.9236111111111112</v>
-      </c>
-      <c r="F4" s="6">
-        <v>12132.6083137408</v>
-      </c>
-      <c r="G4" s="6">
-        <v>13446.131174986889</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9623.2366299579317</v>
-      </c>
-      <c r="I4" s="6">
-        <v>9780.9174383928002</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.2152777777777777</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.6354166666666665</v>
-      </c>
-      <c r="F5" s="6">
-        <v>18787.844746815939</v>
-      </c>
-      <c r="G5" s="6">
-        <v>22823.472153779701</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.1736111111111112</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.6805555555555556</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20186.70418251475</v>
-      </c>
-      <c r="G6" s="6">
-        <v>24878.728342268339</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.3125</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.40625</v>
-      </c>
-      <c r="F7" s="6">
-        <v>13769.20743966</v>
-      </c>
-      <c r="G7" s="6">
-        <v>15678.33337062094</v>
-      </c>
-      <c r="H7" s="6">
-        <v>11281.78538034747</v>
-      </c>
-      <c r="I7" s="6">
-        <v>11204.26644645922</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.3923611111111112</v>
-      </c>
-      <c r="F8" s="6">
-        <v>12577.89656198255</v>
-      </c>
-      <c r="G8" s="6">
-        <v>14047.5867036687</v>
-      </c>
-      <c r="H8" s="6">
-        <v>10063.601083791789</v>
-      </c>
-      <c r="I8" s="6">
-        <v>10161.627881564829</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4500</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.9166666666666665</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.9756944444444444</v>
-      </c>
-      <c r="F9" s="6">
-        <v>12577.89656198255</v>
-      </c>
-      <c r="G9" s="6">
-        <v>14047.5867036687</v>
-      </c>
-      <c r="H9" s="6">
-        <v>10063.601083791789</v>
-      </c>
-      <c r="I9" s="6">
-        <v>10161.627881564829</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4500</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.2361111111111112</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.2951388888888888</v>
-      </c>
-      <c r="F10" s="6">
-        <v>12577.89656198255</v>
-      </c>
-      <c r="G10" s="6">
-        <v>14047.5867036687</v>
-      </c>
-      <c r="H10" s="6">
-        <v>10063.601083791789</v>
-      </c>
-      <c r="I10" s="6">
-        <v>10161.627881564829</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.0451388888888888</v>
-      </c>
-      <c r="F11" s="6">
-        <v>13971.035804542091</v>
-      </c>
-      <c r="G11" s="6">
-        <v>15957.504646241359</v>
-      </c>
-      <c r="H11" s="6">
-        <v>11493.604564142061</v>
-      </c>
-      <c r="I11" s="6">
-        <v>11384.15579240081</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3119,7 +2456,9 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3209,212 +2548,60 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>782</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>212</v>
-      </c>
-      <c r="E4" s="2">
-        <v>330</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>783</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>192</v>
-      </c>
-      <c r="E5" s="2">
-        <v>339</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>784</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>173</v>
-      </c>
-      <c r="E6" s="2">
-        <v>326</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>785</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>205</v>
-      </c>
-      <c r="E7" s="2">
-        <v>265</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>786</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>171</v>
-      </c>
-      <c r="E8" s="2">
-        <v>302</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>787</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>164</v>
-      </c>
-      <c r="E9" s="2">
-        <v>287</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>788</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>199</v>
-      </c>
-      <c r="E10" s="2">
-        <v>222</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>789</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>152</v>
-      </c>
-      <c r="E11" s="2">
-        <v>287</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
